--- a/top_league_soccer/Excel/dados_premier_russia.xlsx
+++ b/top_league_soccer/Excel/dados_premier_russia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -112,18 +112,18 @@
     <t>FK Nizjni Novgorod</t>
   </si>
   <si>
+    <t>Rostov</t>
+  </si>
+  <si>
     <t>Fakel</t>
   </si>
   <si>
-    <t>Rostov</t>
+    <t>Akhmat Grozny</t>
   </si>
   <si>
     <t>Ural</t>
   </si>
   <si>
-    <t>Akhmat Grozny</t>
-  </si>
-  <si>
     <t>Orenburg</t>
   </si>
   <si>
@@ -133,166 +133,157 @@
     <t>Sochi</t>
   </si>
   <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.9</t>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.9</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>6.4</t>
   </si>
   <si>
     <t>5.6</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>2.3</t>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
   <si>
     <t>5.5</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>4.8</t>
   </si>
   <si>
     <t>4.1</t>
   </si>
   <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>94%</t>
-  </si>
-  <si>
-    <t>85%</t>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>90%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>72%</t>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>63%</t>
   </si>
   <si>
     <t>95%</t>
   </si>
   <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>2.33</t>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>2.84</t>
   </si>
   <si>
     <t>2.89</t>
   </si>
   <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>3.06</t>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
   <si>
     <t>2.11</t>
   </si>
   <si>
-    <t>1.72</t>
+    <t>1.74</t>
   </si>
   <si>
     <t>1.89</t>
   </si>
   <si>
-    <t>2.94</t>
-  </si>
-  <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.67</t>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.53</t>
   </si>
 </sst>
 </file>
@@ -690,16 +681,16 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -713,16 +704,16 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -733,19 +724,19 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -756,19 +747,19 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -779,19 +770,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -802,19 +793,19 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -825,19 +816,19 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -851,16 +842,16 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -871,19 +862,19 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -894,19 +885,19 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -917,19 +908,19 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -940,19 +931,19 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -963,19 +954,19 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -986,19 +977,19 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1009,19 +1000,19 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1032,19 +1023,19 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_premier_russia.xlsx
+++ b/top_league_soccer/Excel/dados_premier_russia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -85,15 +85,18 @@
     <t>16.</t>
   </si>
   <si>
+    <t>Zenit</t>
+  </si>
+  <si>
     <t>Krasnodar</t>
   </si>
   <si>
-    <t>Zenit</t>
-  </si>
-  <si>
     <t>Dinamo Moskva</t>
   </si>
   <si>
+    <t>CSKA Moskva</t>
+  </si>
+  <si>
     <t>Lokomotiv Moskva</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
     <t>Krylya Sovetov</t>
   </si>
   <si>
-    <t>CSKA Moskva</t>
-  </si>
-  <si>
     <t>Rubin Kazan</t>
   </si>
   <si>
@@ -121,169 +121,181 @@
     <t>Akhmat Grozny</t>
   </si>
   <si>
+    <t>Orenburg</t>
+  </si>
+  <si>
     <t>Ural</t>
   </si>
   <si>
-    <t>Orenburg</t>
-  </si>
-  <si>
     <t>Baltika</t>
   </si>
   <si>
     <t>Sochi</t>
   </si>
   <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>1.8</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>2.1</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.1</t>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
   </si>
   <si>
     <t>5.1</t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.4</t>
   </si>
   <si>
     <t>4.8</t>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>79%</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>90%</t>
   </si>
   <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.74</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>1.74</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.47</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.53</t>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>1.85</t>
   </si>
 </sst>
 </file>
@@ -681,16 +693,16 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -704,16 +716,16 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -724,19 +736,19 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -747,19 +759,19 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -770,19 +782,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -793,19 +805,19 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -816,19 +828,19 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -839,19 +851,19 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -862,19 +874,19 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -885,19 +897,19 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -908,19 +920,19 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -934,16 +946,16 @@
         <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -954,19 +966,19 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -977,19 +989,19 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1000,19 +1012,19 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1023,19 +1035,19 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_premier_russia.xlsx
+++ b/top_league_soccer/Excel/dados_premier_russia.xlsx
@@ -94,208 +94,208 @@
     <t>Dinamo Moskva</t>
   </si>
   <si>
+    <t>Lokomotiv Moskva</t>
+  </si>
+  <si>
+    <t>Spartak Moskva</t>
+  </si>
+  <si>
     <t>CSKA Moskva</t>
   </si>
   <si>
-    <t>Lokomotiv Moskva</t>
-  </si>
-  <si>
-    <t>Spartak Moskva</t>
-  </si>
-  <si>
     <t>Krylya Sovetov</t>
   </si>
   <si>
+    <t>Rostov</t>
+  </si>
+  <si>
     <t>Rubin Kazan</t>
   </si>
   <si>
     <t>FK Nizjni Novgorod</t>
   </si>
   <si>
-    <t>Rostov</t>
+    <t>Orenburg</t>
   </si>
   <si>
     <t>Fakel</t>
   </si>
   <si>
+    <t>Ural</t>
+  </si>
+  <si>
+    <t>Baltika</t>
+  </si>
+  <si>
     <t>Akhmat Grozny</t>
   </si>
   <si>
-    <t>Orenburg</t>
-  </si>
-  <si>
-    <t>Ural</t>
-  </si>
-  <si>
-    <t>Baltika</t>
-  </si>
-  <si>
     <t>Sochi</t>
   </si>
   <si>
     <t>1.3</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.9</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>1.8</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
+    <t>1.7</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>1.5</t>
   </si>
   <si>
     <t>6.4</t>
   </si>
   <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
     <t>5.2</t>
   </si>
   <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>5.5</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>5.6</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>81%</t>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>55%</t>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>54%</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>60%</t>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>62%</t>
   </si>
   <si>
     <t>28%</t>
   </si>
   <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>2.20</t>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>2.58</t>
   </si>
   <si>
     <t>2.50</t>
   </si>
   <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>1.85</t>
+    <t>2.71</t>
   </si>
 </sst>
 </file>
@@ -693,13 +693,13 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -716,13 +716,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -739,10 +739,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
@@ -762,13 +762,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>83</v>
@@ -785,7 +785,7 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -794,7 +794,7 @@
         <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -805,19 +805,19 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -828,16 +828,16 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>85</v>
@@ -851,16 +851,16 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -877,13 +877,13 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
         <v>87</v>
@@ -897,16 +897,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
@@ -920,16 +920,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
         <v>89</v>
@@ -943,10 +943,10 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>69</v>
@@ -966,13 +966,13 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -989,19 +989,19 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1015,16 +1015,16 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
